--- a/pollyServer/app/RAG/eval-ds/output/init-test-1.xlsx
+++ b/pollyServer/app/RAG/eval-ds/output/init-test-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suryaganesan/Documents/GitHub/polly-server/pollyServer/app/RAG/eval-ds/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0B2DF8-9168-944D-93A8-58F47D3B55F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36DD2CE-B0CB-BB4E-8A59-9136F2E4183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13380" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,12 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,7 +701,9 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
@@ -750,7 +753,9 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6">
         <v>0.5</v>
       </c>
@@ -852,7 +857,9 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
@@ -876,7 +883,9 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
@@ -937,19 +946,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14">
+      <c r="E14" s="3">
         <f>AVERAGE(E2:E13)</f>
         <v>0.64583333333333337</v>
       </c>
-      <c r="F14">
-        <f t="shared" ref="F14:H14" si="0">AVERAGE(F2:F13)</f>
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="F14" s="3">
+        <f>AVERAGE(F2:F13)</f>
+        <v>0.51</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ref="F14:H14" si="0">AVERAGE(G2:G13)</f>
         <v>0.62544733044733036</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>0.87686985179604904</v>
       </c>
